--- a/templates/ThinkCell/timeline_v2.xlsx
+++ b/templates/ThinkCell/timeline_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephankuche/Downloads/Cus Timelijne/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephankuche/CreateJiraIssues/templates/ThinkCell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8EA52C-2E09-4448-B9E7-D7E685FB88B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33F36A9-81A5-9D42-98B9-90230D29AB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="7180" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8340" yWindow="5280" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>Start</t>
   </si>
@@ -180,6 +180,27 @@
   </si>
   <si>
     <t>Wave 1,2,n (CompCode xx-xx)</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>= start date Project management'</t>
+  </si>
+  <si>
+    <t>= kickoff + 15d'</t>
+  </si>
+  <si>
+    <t>=1,steerco +15d'</t>
+  </si>
+  <si>
+    <t>Wave Startdate = Enddate Delivery</t>
+  </si>
+  <si>
+    <t>Wave Enddate = Startdate Wave +30</t>
+  </si>
+  <si>
+    <t>Enddate= EnddateDelivery</t>
   </si>
 </sst>
 </file>
@@ -257,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -267,7 +288,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -276,6 +296,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,8 +621,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,19 +653,19 @@
       </c>
       <c r="E1" s="1">
         <f>C37</f>
-        <v>45503</v>
+        <v>45489</v>
       </c>
       <c r="F1" s="1">
         <f ca="1">C31</f>
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="G1" s="1">
         <f>C38</f>
-        <v>45519</v>
+        <v>45504</v>
       </c>
       <c r="H1" s="1">
         <f>C39</f>
-        <v>45550</v>
+        <v>45519</v>
       </c>
       <c r="I1" s="1">
         <f>C33</f>
@@ -672,7 +700,7 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C11" si="0">C45</f>
-        <v>45595</v>
+        <v>45556</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -797,7 +825,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>45595</v>
+        <v>45586</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -815,7 +843,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -823,291 +851,333 @@
       <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <f ca="1">TODAY()</f>
-        <v>45479</v>
+        <v>45480</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="8">
+        <f>B45</f>
         <v>45474</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="D33" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="7">
         <v>45483</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="7">
         <v>45488</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="7">
         <v>45493</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="8">
+        <f>B45+15</f>
+        <v>45489</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="8">
+        <f>C37+15</f>
+        <v>45504</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="8">
+        <f>C38+15</f>
+        <v>45519</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="7">
+        <v>45474</v>
+      </c>
+      <c r="C44" s="7">
+        <v>45539</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="7">
+        <v>45474</v>
+      </c>
+      <c r="C45" s="7">
+        <f>C52</f>
+        <v>45556</v>
+      </c>
+      <c r="D45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="7">
+        <v>45474</v>
+      </c>
+      <c r="C46" s="7">
+        <v>45493</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="7">
+        <v>45493</v>
+      </c>
+      <c r="C47" s="7">
         <v>45503</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="5">
-        <v>45519</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="5">
-        <v>45550</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="8">
-        <v>45474</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="E47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="7">
+        <v>45503</v>
+      </c>
+      <c r="C48" s="7">
+        <v>45518</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="7">
+        <v>45503</v>
+      </c>
+      <c r="C49" s="7">
+        <v>45518</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="7">
+        <v>45503</v>
+      </c>
+      <c r="C50" s="7">
+        <v>45518</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="7">
+        <v>45518</v>
+      </c>
+      <c r="C51" s="7">
+        <v>45534</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="7">
         <v>45539</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="8">
-        <v>45474</v>
-      </c>
-      <c r="C45" s="8">
-        <v>45595</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="8">
-        <v>45474</v>
-      </c>
-      <c r="C46" s="8">
-        <v>45493</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="8">
-        <v>45493</v>
-      </c>
-      <c r="C47" s="8">
-        <v>45503</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="8">
-        <v>45503</v>
-      </c>
-      <c r="C48" s="8">
-        <v>45518</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="8">
-        <v>45503</v>
-      </c>
-      <c r="C49" s="8">
-        <v>45518</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="8">
-        <v>45503</v>
-      </c>
-      <c r="C50" s="8">
-        <v>45518</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="8">
-        <v>45518</v>
-      </c>
-      <c r="C51" s="8">
-        <v>45534</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="8">
-        <v>45539</v>
-      </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>45556</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="E52" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="F52" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="H52" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="8">
+        <f>C52</f>
         <v>45556</v>
       </c>
       <c r="C53" s="8">
-        <v>45595</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <f>B53+30</f>
+        <v>45586</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
     </row>
   </sheetData>

--- a/templates/ThinkCell/timeline_v2.xlsx
+++ b/templates/ThinkCell/timeline_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephankuche/CreateJiraIssues/templates/ThinkCell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33F36A9-81A5-9D42-98B9-90230D29AB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418620ED-A801-9E4C-ABC7-D987DA144A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8340" yWindow="5280" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,8 +621,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,7 +657,7 @@
       </c>
       <c r="F1" s="1">
         <f ca="1">C31</f>
-        <v>45480</v>
+        <v>45596</v>
       </c>
       <c r="G1" s="1">
         <f>C38</f>
@@ -853,7 +853,7 @@
       </c>
       <c r="C31" s="12">
         <f ca="1">TODAY()</f>
-        <v>45480</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1181,10 +1181,14 @@
       <c r="A61" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Date" prompt="Must be between 1.1.-31.12.23" sqref="B34:C53 C33" xr:uid="{066995AB-AE85-F841-9135-61A33D8EECDF}">
+  <dataValidations count="2">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Date" prompt="Must be between 1.1.-31.12.23" sqref="C40:C43 B34:B43" xr:uid="{066995AB-AE85-F841-9135-61A33D8EECDF}">
       <formula1>45474</formula1>
       <formula2>45657</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Date" prompt="Must be between 1.1.-31.12.23" sqref="B44:C53 C33:C39" xr:uid="{391AED1E-579C-B14C-BAAF-C2A6CB530C00}">
+      <formula1>45474</formula1>
+      <formula2>47848</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
